--- a/library_04.04.2021.xlsx
+++ b/library_04.04.2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE005D6-6D19-4ADF-A2DA-F7AD87EC9AFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26DFBDE-4126-4162-824F-B2C04383F67F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="6600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
